--- a/module/mDrims-Reader/documents/origin/mdrims/군사학/군사학.xlsx
+++ b/module/mDrims-Reader/documents/origin/mdrims/군사학/군사학.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongguk0-my.sharepoint.com/personal/97mjh1012_dongguk_edu/Documents/CSE_Study/개인 프로젝트/mdrims-reader/mdrims-reader/documents/mdrims/military_science/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - dongguk.edu\CSE_Study\개인 프로젝트\TimeTable-Generator\project\module\mDrims-Reader\mdrims-reader\documents\origin\mdrims\군사학\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_B93E54534A06024FD9156304C4712D6F9BADF7B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F438084B-AB91-4DB6-ABF1-8AD09B8B5725}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC184442-10B4-45FC-BA78-0157EBC290A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,19 +43,19 @@
     <t>군사학</t>
   </si>
   <si>
-    <t>MRC0006-01</t>
-  </si>
-  <si>
-    <t>안전및조직관리사례연구</t>
+    <t>MRC0005-01</t>
+  </si>
+  <si>
+    <t>안보학</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>MRC0008-01</t>
-  </si>
-  <si>
-    <t>조직리더십사례연구</t>
+    <t>MRC0007-01</t>
+  </si>
+  <si>
+    <t>조직리더십</t>
   </si>
   <si>
     <t>*</t>
@@ -457,7 +457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
